--- a/data/2022_subeje_salud_mental.xlsx
+++ b/data/2022_subeje_salud_mental.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svale\Desktop\RBDUOC2025\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA509B92-1386-4CEC-82E4-B3CC4F03B5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE49F7F-69DD-47F0-BCDE-EF6336DCA063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{35A884C3-4669-41DF-9DC3-61B964CD8C83}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{35A884C3-4669-41DF-9DC3-61B964CD8C83}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -38,66 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
-    <t>ALAMEDA</t>
-  </si>
-  <si>
-    <t>ANTONIO VARAS</t>
-  </si>
-  <si>
-    <t>CAMPUS ARAUCO</t>
-  </si>
-  <si>
-    <t>CAMPUS VILLARRICA</t>
-  </si>
-  <si>
-    <t>CONCEPCIÓN</t>
-  </si>
-  <si>
-    <t>MAIPÚ</t>
-  </si>
-  <si>
-    <t>MELIPILLA</t>
-  </si>
-  <si>
-    <t>NACIMIENTO</t>
-  </si>
-  <si>
-    <t>ONLINE</t>
-  </si>
-  <si>
-    <t>PADRE ALONSO DE OVALLE</t>
-  </si>
-  <si>
-    <t>PLAZA NORTE</t>
-  </si>
-  <si>
-    <t>PLAZA OESTE</t>
-  </si>
-  <si>
-    <t>PLAZA VESPUCIO</t>
-  </si>
-  <si>
-    <t>PUENTE ALTO</t>
-  </si>
-  <si>
-    <t>PUERTO MONTT</t>
-  </si>
-  <si>
-    <t>SAN BERNARDO</t>
-  </si>
-  <si>
-    <t>SAN CARLOS DE APOQUINDO</t>
-  </si>
-  <si>
-    <t>SAN JOAQUÍN</t>
-  </si>
-  <si>
-    <t>VALPARAÍSO</t>
-  </si>
-  <si>
-    <t>VIÑA DEL MAR</t>
-  </si>
-  <si>
     <t>Administración y Negocios</t>
   </si>
   <si>
@@ -153,6 +93,66 @@
   </si>
   <si>
     <t>suicidio_manejo_clinico</t>
+  </si>
+  <si>
+    <t>Alameda</t>
+  </si>
+  <si>
+    <t>Antonio Varas</t>
+  </si>
+  <si>
+    <t>Campus Arauco</t>
+  </si>
+  <si>
+    <t>Campus Villarrica</t>
+  </si>
+  <si>
+    <t>Concepción</t>
+  </si>
+  <si>
+    <t>Maipú</t>
+  </si>
+  <si>
+    <t>Melipilla</t>
+  </si>
+  <si>
+    <t>Nacimiento</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>Padre Alonso De Ovalle</t>
+  </si>
+  <si>
+    <t>Plaza Norte</t>
+  </si>
+  <si>
+    <t>Plaza Oeste</t>
+  </si>
+  <si>
+    <t>Plaza Vespucio</t>
+  </si>
+  <si>
+    <t>Puente Alto</t>
+  </si>
+  <si>
+    <t>Puerto Montt</t>
+  </si>
+  <si>
+    <t>San Bernardo</t>
+  </si>
+  <si>
+    <t>San Carlos De Apoquindo</t>
+  </si>
+  <si>
+    <t>San Joaquín</t>
+  </si>
+  <si>
+    <t>Valparaíso</t>
+  </si>
+  <si>
+    <t>Viña Del Mar</t>
   </si>
 </sst>
 </file>
@@ -541,41 +541,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C977B8F-C199-4ABB-A7AB-E3252FCC68B3}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1">
         <v>16.463485177151121</v>
@@ -604,7 +604,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1">
         <v>16.555555555555557</v>
@@ -633,7 +633,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1">
         <v>18.100000000000001</v>
@@ -662,7 +662,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1">
         <v>17</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1">
         <v>13.166666666666666</v>
@@ -720,7 +720,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1">
         <v>17.407407407407408</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1">
         <v>15.84</v>
@@ -778,7 +778,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1">
         <v>14.950980392156863</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1" t="e">
         <v>#DIV/0!</v>
@@ -816,27 +816,27 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="I10" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1">
         <v>20</v>
@@ -845,27 +845,27 @@
         <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="I11" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1">
         <v>17.657142857142858</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1">
         <v>16.613636363636363</v>
@@ -923,7 +923,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1">
         <v>16.875</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B15" s="1">
         <v>18.829268292682926</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B16" s="1">
         <v>18.378378378378379</v>
@@ -1010,7 +1010,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B17" s="1">
         <v>18.066666666666666</v>
@@ -1039,7 +1039,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B18" s="1">
         <v>17.146341463414632</v>
@@ -1068,7 +1068,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B19" s="1">
         <v>14.588235294117647</v>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B20" s="1">
         <v>16.347826086956523</v>
@@ -1126,7 +1126,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B21" s="1">
         <v>15.594982078853047</v>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B22" s="1">
         <v>15.955056179775282</v>
@@ -1184,7 +1184,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B23" s="1">
         <v>17.097222222222221</v>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B24" s="1">
         <v>16.903225806451612</v>
@@ -1242,7 +1242,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B25" s="1">
         <v>15.419847328244275</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B26" s="1">
         <v>18.399999999999999</v>
@@ -1300,7 +1300,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B27" s="1">
         <v>17.262295081967213</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B28" s="1">
         <v>15.284263959390863</v>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B29" s="1">
         <v>16.03859649122807</v>
@@ -1387,7 +1387,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B30" s="1">
         <v>16.737179487179485</v>
@@ -1416,7 +1416,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B31" s="1">
         <v>17.254545454545454</v>
